--- a/Small_Calices.xlsx
+++ b/Small_Calices.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hana-lei/Desktop/GitHub/CF_2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB17FB0E-5D19-AD44-B2F0-9A3A4AA0048F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B93E5C0-C1C6-7F4B-A98F-F8D32B4E0E4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="16940" windowHeight="16340" xr2:uid="{8D860679-85BD-674F-B8FF-0E8123A95046}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t xml:space="preserve"># Of Calices </t>
   </si>
@@ -53,6 +53,12 @@
   </si>
   <si>
     <t>OFRA_PS_1GT3</t>
+  </si>
+  <si>
+    <t>OFAV_SS_9DW37</t>
+  </si>
+  <si>
+    <t>OFAV_SS_1AZ5</t>
   </si>
 </sst>
 </file>
@@ -404,10 +410,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C0F81A5-FF51-104A-B1A3-029D182A2632}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -452,6 +458,22 @@
         <v>4</v>
       </c>
     </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Small_Calices.xlsx
+++ b/Small_Calices.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hana-lei/Desktop/GitHub/CF_2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B93E5C0-C1C6-7F4B-A98F-F8D32B4E0E4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE045B6C-E681-D145-9479-F9A31C84E1BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="16940" windowHeight="16340" xr2:uid="{8D860679-85BD-674F-B8FF-0E8123A95046}"/>
+    <workbookView xWindow="13840" yWindow="500" windowWidth="16940" windowHeight="16280" xr2:uid="{8D860679-85BD-674F-B8FF-0E8123A95046}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t xml:space="preserve"># Of Calices </t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t>OFAV_SS_1AZ5</t>
+  </si>
+  <si>
+    <t>OFAV_PS_9AZ5</t>
   </si>
 </sst>
 </file>
@@ -410,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C0F81A5-FF51-104A-B1A3-029D182A2632}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -474,6 +477,14 @@
         <v>3</v>
       </c>
     </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Small_Calices.xlsx
+++ b/Small_Calices.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hana-lei/Desktop/GitHub/CF_2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE045B6C-E681-D145-9479-F9A31C84E1BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6547FCC2-FFB4-FF47-879F-F613E4198682}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13840" yWindow="500" windowWidth="16940" windowHeight="16280" xr2:uid="{8D860679-85BD-674F-B8FF-0E8123A95046}"/>
+    <workbookView xWindow="3260" yWindow="500" windowWidth="16940" windowHeight="16280" xr2:uid="{8D860679-85BD-674F-B8FF-0E8123A95046}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t xml:space="preserve"># Of Calices </t>
   </si>
@@ -62,6 +62,9 @@
   </si>
   <si>
     <t>OFAV_PS_9AZ5</t>
+  </si>
+  <si>
+    <t>OFAV_PS_6GT17</t>
   </si>
 </sst>
 </file>
@@ -413,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C0F81A5-FF51-104A-B1A3-029D182A2632}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -485,6 +488,14 @@
         <v>3</v>
       </c>
     </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Small_Calices.xlsx
+++ b/Small_Calices.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hana-lei/Desktop/GitHub/CF_2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6547FCC2-FFB4-FF47-879F-F613E4198682}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36B67554-EA1B-F647-AE7A-2AFDDB49A5A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3260" yWindow="500" windowWidth="16940" windowHeight="16280" xr2:uid="{8D860679-85BD-674F-B8FF-0E8123A95046}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t xml:space="preserve"># Of Calices </t>
   </si>
@@ -65,6 +65,9 @@
   </si>
   <si>
     <t>OFAV_PS_6GT17</t>
+  </si>
+  <si>
+    <t>ORFA_PP_4CX12</t>
   </si>
 </sst>
 </file>
@@ -416,10 +419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C0F81A5-FF51-104A-B1A3-029D182A2632}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -496,6 +499,14 @@
         <v>3</v>
       </c>
     </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Small_Calices.xlsx
+++ b/Small_Calices.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hana-lei/Desktop/GitHub/CF_2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36B67554-EA1B-F647-AE7A-2AFDDB49A5A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCD9E5F7-3061-C84A-8D6A-08AA9286D4D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3260" yWindow="500" windowWidth="16940" windowHeight="16280" xr2:uid="{8D860679-85BD-674F-B8FF-0E8123A95046}"/>
+    <workbookView xWindow="11520" yWindow="500" windowWidth="16940" windowHeight="16280" xr2:uid="{8D860679-85BD-674F-B8FF-0E8123A95046}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t xml:space="preserve"># Of Calices </t>
   </si>
@@ -68,6 +68,9 @@
   </si>
   <si>
     <t>ORFA_PP_4CX12</t>
+  </si>
+  <si>
+    <t>OFRA_PP_6GT17</t>
   </si>
 </sst>
 </file>
@@ -419,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C0F81A5-FF51-104A-B1A3-029D182A2632}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -507,6 +510,14 @@
         <v>4</v>
       </c>
     </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
